--- a/StockDumpsSource/Dalmia Bhara.xlsx
+++ b/StockDumpsSource/Dalmia Bhara.xlsx
@@ -4094,7 +4094,7 @@
         <v>80</v>
       </c>
       <c r="B9">
-        <v>10399.25</v>
+        <v>10426.52</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
